--- a/docs/data/blacklist/blacklist.xlsx
+++ b/docs/data/blacklist/blacklist.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/syriebianco/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/syriebianco/Desktop/Programming/TellMeWhatToEat/docs/data/blacklist/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>answer_id</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -35,18 +35,6 @@
   </si>
   <si>
     <t>whitelist_id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unknown</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>All</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>end_question</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -391,20 +379,19 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:E80"/>
+  <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="8.83203125" customWidth="1"/>
-    <col min="4" max="4" width="6" customWidth="1"/>
-    <col min="5" max="5" width="34.5" customWidth="1"/>
+    <col min="4" max="4" width="34.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -414,46 +401,34 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>101</v>
       </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>102</v>
       </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -461,11 +436,8 @@
         <v>201</v>
       </c>
       <c r="C5" s="4"/>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -473,319 +445,232 @@
         <v>20101</v>
       </c>
       <c r="C6" s="4"/>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>2</v>
       </c>
       <c r="B7">
         <v>2010101</v>
       </c>
-      <c r="D7" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>2</v>
       </c>
       <c r="B8">
         <v>20103</v>
       </c>
-      <c r="D8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>2</v>
       </c>
       <c r="B9">
         <v>20104</v>
       </c>
-      <c r="D9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>2</v>
       </c>
       <c r="B10">
         <v>202</v>
       </c>
-      <c r="D10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2</v>
       </c>
       <c r="B11">
         <v>20201</v>
       </c>
-      <c r="D11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>2</v>
       </c>
       <c r="B12">
         <v>20203</v>
       </c>
-      <c r="D12" t="b">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>2</v>
       </c>
       <c r="B13">
         <v>301</v>
       </c>
-      <c r="D13" t="b">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14">
         <v>302</v>
       </c>
-      <c r="D14" t="b">
-        <v>0</v>
-      </c>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>2</v>
       </c>
       <c r="B15">
         <v>4</v>
       </c>
-      <c r="D15" t="b">
-        <v>0</v>
-      </c>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>2</v>
       </c>
       <c r="B16">
         <v>5</v>
       </c>
-      <c r="D16" t="b">
-        <v>0</v>
-      </c>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>2</v>
       </c>
       <c r="B17">
         <v>8</v>
       </c>
-      <c r="D17" t="b">
-        <v>0</v>
-      </c>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>2</v>
       </c>
       <c r="B18">
         <v>9</v>
       </c>
-      <c r="D18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>2</v>
       </c>
       <c r="B19">
         <v>901</v>
       </c>
-      <c r="D19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>2</v>
       </c>
       <c r="B20">
         <v>902</v>
       </c>
-      <c r="D20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>2</v>
       </c>
       <c r="B21">
         <v>12</v>
       </c>
-      <c r="D21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>2</v>
       </c>
       <c r="B22">
         <v>13</v>
       </c>
-      <c r="D22" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>7</v>
       </c>
       <c r="B23">
         <v>666</v>
       </c>
-      <c r="D23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>8</v>
       </c>
       <c r="C24">
         <v>102</v>
       </c>
-      <c r="D24" t="b">
-        <v>0</v>
-      </c>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>8</v>
       </c>
       <c r="C25">
         <v>20104</v>
       </c>
-      <c r="D25" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>9</v>
       </c>
       <c r="C26">
         <v>202</v>
       </c>
-      <c r="D26" t="b">
-        <v>0</v>
-      </c>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>9</v>
       </c>
       <c r="C27">
         <v>301</v>
       </c>
-      <c r="D27" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>9</v>
       </c>
       <c r="C28">
         <v>20201</v>
       </c>
-      <c r="D28" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>9</v>
       </c>
       <c r="C29">
         <v>20203</v>
       </c>
-      <c r="D29" t="b">
-        <v>0</v>
-      </c>
-      <c r="E29" s="1"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>3</v>
       </c>
-      <c r="D30" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>4</v>
       </c>
-      <c r="D31" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>5</v>
       </c>
-      <c r="D32" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>6</v>
       </c>
-      <c r="D33" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>27</v>
       </c>
-      <c r="D34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>28</v>
       </c>
@@ -793,7 +678,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>28</v>
       </c>
@@ -801,7 +686,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>28</v>
       </c>
@@ -809,7 +694,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>28</v>
       </c>
@@ -817,43 +702,40 @@
         <v>302</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>31</v>
       </c>
       <c r="C39">
         <v>20203</v>
       </c>
-      <c r="E39" s="2"/>
-    </row>
-    <row r="40" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>32</v>
       </c>
-      <c r="D40" t="s">
-        <v>4</v>
-      </c>
-      <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>33</v>
       </c>
       <c r="C41">
         <v>20203</v>
       </c>
-      <c r="E41" s="1"/>
-    </row>
-    <row r="42" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>33</v>
       </c>
       <c r="C42">
         <v>20104</v>
       </c>
-      <c r="E42" s="1"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>33</v>
       </c>
@@ -861,15 +743,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>34</v>
       </c>
-      <c r="D44" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>35</v>
       </c>
@@ -877,7 +756,7 @@
         <v>20104</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>35</v>
       </c>
@@ -885,7 +764,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>35</v>
       </c>
@@ -893,7 +772,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>36</v>
       </c>
@@ -901,7 +780,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>36</v>
       </c>
@@ -909,7 +788,7 @@
         <v>20104</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>37</v>
       </c>
@@ -917,7 +796,7 @@
         <v>20104</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>37</v>
       </c>
@@ -925,7 +804,7 @@
         <v>20103</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>37</v>
       </c>
@@ -933,7 +812,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>37</v>
       </c>
@@ -941,7 +820,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>37</v>
       </c>
@@ -949,7 +828,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>38</v>
       </c>
@@ -957,7 +836,7 @@
         <v>20104</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>38</v>
       </c>
@@ -965,7 +844,7 @@
         <v>2010101</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>38</v>
       </c>
@@ -973,7 +852,7 @@
         <v>2010201</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>38</v>
       </c>
@@ -981,7 +860,7 @@
         <v>20103</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>38</v>
       </c>
@@ -989,7 +868,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>39</v>
       </c>
@@ -997,7 +876,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>39</v>
       </c>
@@ -1005,7 +884,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>39</v>
       </c>
@@ -1013,7 +892,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>40</v>
       </c>
@@ -1021,15 +900,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>47</v>
       </c>
-      <c r="D64" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>48</v>
       </c>
@@ -1037,7 +913,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>48</v>
       </c>
@@ -1045,7 +921,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>49</v>
       </c>
@@ -1053,7 +929,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>50</v>
       </c>
@@ -1061,7 +937,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>51</v>
       </c>
@@ -1069,23 +945,17 @@
         <v>666</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>52</v>
       </c>
-      <c r="D70" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>53</v>
       </c>
-      <c r="D71" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>54</v>
       </c>
@@ -1093,7 +963,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>54</v>
       </c>
@@ -1101,23 +971,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <v>55</v>
       </c>
-      <c r="D74" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
         <v>3</v>
       </c>
-      <c r="D75" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>10</v>
       </c>
@@ -1125,7 +989,7 @@
         <v>20101</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
         <v>10</v>
       </c>
@@ -1133,7 +997,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>11</v>
       </c>
@@ -1141,7 +1005,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <v>12</v>
       </c>
@@ -1149,7 +1013,7 @@
         <v>20104</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <v>22</v>
       </c>

--- a/docs/data/blacklist/blacklist.xlsx
+++ b/docs/data/blacklist/blacklist.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27920" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Answers" sheetId="10" r:id="rId1"/>
@@ -379,19 +379,21 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:D80"/>
+  <dimension ref="A1:W207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="8.83203125" customWidth="1"/>
     <col min="4" max="4" width="34.5" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" customWidth="1"/>
+    <col min="7" max="23" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -402,234 +404,271 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3">
         <v>101</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>102</v>
-      </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>2</v>
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5">
-        <v>201</v>
-      </c>
-      <c r="C5" s="4"/>
-    </row>
-    <row r="6" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5"/>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+    </row>
+    <row r="6" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>2</v>
       </c>
-      <c r="B6">
-        <v>20101</v>
-      </c>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B6"/>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+    </row>
+    <row r="7" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7">
-        <v>2010101</v>
+      <c r="C7">
+        <v>6</v>
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>2</v>
       </c>
-      <c r="B8">
-        <v>20103</v>
+      <c r="C8">
+        <v>7</v>
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>2</v>
       </c>
-      <c r="B9">
-        <v>20104</v>
+      <c r="C9">
+        <v>9</v>
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>2</v>
       </c>
-      <c r="B10">
-        <v>202</v>
+      <c r="C10">
+        <v>10</v>
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2</v>
       </c>
-      <c r="B11">
-        <v>20201</v>
+      <c r="C11">
+        <v>15</v>
       </c>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>2</v>
       </c>
-      <c r="B12">
-        <v>20203</v>
+      <c r="C12">
+        <v>14</v>
       </c>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>2</v>
       </c>
-      <c r="B13">
-        <v>301</v>
+      <c r="C13">
+        <v>101</v>
       </c>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>2</v>
       </c>
-      <c r="B14">
-        <v>302</v>
+      <c r="C14">
+        <v>201</v>
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
-        <v>2</v>
-      </c>
-      <c r="B15">
-        <v>4</v>
+        <v>9</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
       </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
-        <v>2</v>
-      </c>
-      <c r="B16">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
       </c>
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
-        <v>2</v>
-      </c>
-      <c r="B17">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
       </c>
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
-        <v>2</v>
-      </c>
-      <c r="B18">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="C18">
+        <v>6</v>
       </c>
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
-        <v>2</v>
-      </c>
-      <c r="B19">
-        <v>901</v>
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
-        <v>2</v>
-      </c>
-      <c r="B20">
-        <v>902</v>
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
-        <v>2</v>
-      </c>
-      <c r="B21">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="C21">
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
-        <v>2</v>
-      </c>
-      <c r="B22">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="4">
-        <v>7</v>
-      </c>
-      <c r="B23">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="4">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="C22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>9</v>
+      </c>
+      <c r="C23">
+        <v>15</v>
+      </c>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>9</v>
       </c>
       <c r="C24">
-        <v>102</v>
-      </c>
-      <c r="D24" s="1"/>
+        <v>14</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="4">
-        <v>8</v>
+      <c r="A25" s="3">
+        <v>9</v>
       </c>
       <c r="C25">
-        <v>20104</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="4">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
         <v>9</v>
       </c>
       <c r="C26">
-        <v>202</v>
-      </c>
-      <c r="D26" s="2"/>
+        <v>301</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="4">
+      <c r="A27" s="3">
         <v>9</v>
       </c>
       <c r="C27">
-        <v>301</v>
+        <v>20203</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="4">
+      <c r="A28" s="3">
         <v>9</v>
       </c>
       <c r="C28">
@@ -638,387 +677,1439 @@
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C29">
-        <v>20203</v>
+        <v>1</v>
       </c>
       <c r="D29" s="1"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="3">
+      <c r="A30" s="4">
+        <v>10</v>
+      </c>
+      <c r="C30">
         <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="3">
-        <v>4</v>
+      <c r="A31" s="4">
+        <v>10</v>
+      </c>
+      <c r="C31">
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="3">
-        <v>5</v>
+      <c r="A32" s="4">
+        <v>10</v>
+      </c>
+      <c r="C32">
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="3">
-        <v>6</v>
+      <c r="A33" s="4">
+        <v>10</v>
+      </c>
+      <c r="C33">
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
-        <v>27</v>
+        <v>10</v>
+      </c>
+      <c r="C34">
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C35">
-        <v>102</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C36">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C37">
-        <v>101</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C38">
         <v>302</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="3">
-        <v>31</v>
+      <c r="A39" s="4">
+        <v>10</v>
       </c>
       <c r="C39">
-        <v>20203</v>
+        <v>901</v>
       </c>
       <c r="D39" s="2"/>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
-        <v>32</v>
+        <v>10</v>
+      </c>
+      <c r="C40">
+        <v>20101</v>
       </c>
       <c r="D40" s="2"/>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="3">
-        <v>33</v>
+      <c r="A41" s="4">
+        <v>10</v>
       </c>
       <c r="C41">
-        <v>20203</v>
+        <v>2010101</v>
       </c>
       <c r="D41" s="1"/>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
-        <v>33</v>
-      </c>
-      <c r="C42">
-        <v>20104</v>
+        <v>11</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
       </c>
       <c r="D42" s="1"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
-        <v>33</v>
-      </c>
-      <c r="C43">
+        <v>11</v>
+      </c>
+      <c r="B43">
         <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="4">
-        <v>34</v>
+      <c r="A44" s="3">
+        <v>11</v>
+      </c>
+      <c r="B44">
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="4">
-        <v>35</v>
+      <c r="A45" s="3">
+        <v>11</v>
       </c>
       <c r="B45">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="3">
+        <v>11</v>
+      </c>
+      <c r="B46">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="3">
+        <v>11</v>
+      </c>
+      <c r="B47">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="3">
+        <v>11</v>
+      </c>
+      <c r="B48">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="3">
+        <v>11</v>
+      </c>
+      <c r="B49">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="3">
+        <v>11</v>
+      </c>
+      <c r="B50">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="3">
+        <v>11</v>
+      </c>
+      <c r="B51">
+        <v>20101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="3">
+        <v>11</v>
+      </c>
+      <c r="B52">
         <v>20104</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="4">
-        <v>35</v>
-      </c>
-      <c r="B46">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="4">
-        <v>35</v>
-      </c>
-      <c r="B47">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="4">
-        <v>36</v>
-      </c>
-      <c r="B48">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="4">
-        <v>36</v>
-      </c>
-      <c r="B49">
-        <v>20104</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="4">
-        <v>37</v>
-      </c>
-      <c r="C50">
-        <v>20104</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="4">
-        <v>37</v>
-      </c>
-      <c r="C51">
-        <v>20103</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="4">
-        <v>37</v>
-      </c>
-      <c r="C52">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="4">
-        <v>37</v>
-      </c>
-      <c r="C53">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="3">
+        <v>11</v>
+      </c>
+      <c r="B53">
+        <v>20201</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="3">
+        <v>11</v>
+      </c>
+      <c r="B54">
+        <v>20203</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="3">
+        <v>11</v>
+      </c>
+      <c r="B55">
+        <v>20101</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="3">
+        <v>11</v>
+      </c>
+      <c r="B56">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="4">
         <v>12</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="4">
-        <v>37</v>
-      </c>
-      <c r="C54">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="4">
-        <v>38</v>
-      </c>
-      <c r="C55">
-        <v>20104</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="4">
-        <v>38</v>
-      </c>
-      <c r="C56">
-        <v>2010101</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="4">
-        <v>38</v>
-      </c>
-      <c r="C57">
-        <v>2010201</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
-        <v>38</v>
-      </c>
-      <c r="C58">
-        <v>20103</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="B58">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
-        <v>38</v>
-      </c>
-      <c r="C59">
         <v>12</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B59">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
-        <v>39</v>
-      </c>
-      <c r="C60">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="B60">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
-        <v>39</v>
-      </c>
-      <c r="C61">
+        <v>12</v>
+      </c>
+      <c r="B61">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="4">
+        <v>12</v>
+      </c>
+      <c r="B62">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="4">
+        <v>12</v>
+      </c>
+      <c r="B63">
         <v>301</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="4">
-        <v>39</v>
-      </c>
-      <c r="C62">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="4">
-        <v>40</v>
-      </c>
-      <c r="C63">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
-        <v>47</v>
+        <v>12</v>
+      </c>
+      <c r="B64">
+        <v>302</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="B65">
-        <v>3</v>
+        <v>902</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="B66">
-        <v>1001</v>
+        <v>20101</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="B67">
-        <v>14</v>
+        <v>20102</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="B68">
-        <v>666</v>
+        <v>20103</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="B69">
-        <v>666</v>
+        <v>20201</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
-        <v>52</v>
+        <v>12</v>
+      </c>
+      <c r="B70">
+        <v>20203</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
-        <v>53</v>
+        <v>12</v>
+      </c>
+      <c r="B71">
+        <v>2010101</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
-        <v>54</v>
-      </c>
-      <c r="B72">
-        <v>3</v>
+        <v>14</v>
+      </c>
+      <c r="C72">
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
-        <v>54</v>
-      </c>
-      <c r="B73">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="C73">
+        <v>2010201</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
-        <v>55</v>
+        <v>16</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
-        <v>3</v>
+        <v>16</v>
+      </c>
+      <c r="C75">
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C76">
-        <v>20101</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C77">
-        <v>302</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
-        <v>11</v>
-      </c>
-      <c r="B78">
-        <v>666</v>
+        <v>16</v>
+      </c>
+      <c r="C78">
+        <v>7</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C79">
-        <v>20104</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
+        <v>16</v>
+      </c>
+      <c r="C80">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="4">
+        <v>16</v>
+      </c>
+      <c r="C81">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="4">
+        <v>16</v>
+      </c>
+      <c r="C82">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="4">
+        <v>18</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="4">
+        <v>18</v>
+      </c>
+      <c r="C84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="4">
+        <v>18</v>
+      </c>
+      <c r="C85">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" s="4">
+        <v>18</v>
+      </c>
+      <c r="C86">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="4">
+        <v>18</v>
+      </c>
+      <c r="C87">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" s="4">
+        <v>18</v>
+      </c>
+      <c r="C88">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" s="4">
+        <v>18</v>
+      </c>
+      <c r="C89">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" s="4">
+        <v>19</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" s="4">
+        <v>19</v>
+      </c>
+      <c r="C91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" s="4">
+        <v>19</v>
+      </c>
+      <c r="C92">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" s="4">
+        <v>19</v>
+      </c>
+      <c r="C93">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" s="4">
+        <v>19</v>
+      </c>
+      <c r="C94">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" s="4">
+        <v>19</v>
+      </c>
+      <c r="C95">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" s="4">
+        <v>19</v>
+      </c>
+      <c r="C96">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" s="4">
         <v>22</v>
       </c>
-      <c r="C80">
+      <c r="C97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" s="4">
+        <v>22</v>
+      </c>
+      <c r="C98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" s="4">
+        <v>22</v>
+      </c>
+      <c r="C99">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" s="4">
+        <v>22</v>
+      </c>
+      <c r="C100">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" s="4">
+        <v>22</v>
+      </c>
+      <c r="C101">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" s="4">
+        <v>22</v>
+      </c>
+      <c r="C102">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" s="4">
+        <v>22</v>
+      </c>
+      <c r="C103">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" s="4">
+        <v>22</v>
+      </c>
+      <c r="C104">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" s="4">
+        <v>22</v>
+      </c>
+      <c r="C105">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" s="4">
+        <v>22</v>
+      </c>
+      <c r="C106">
         <v>301</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" s="4">
+        <v>22</v>
+      </c>
+      <c r="C107">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" s="3">
+        <v>23</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" s="3">
+        <v>23</v>
+      </c>
+      <c r="C109">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" s="3">
+        <v>23</v>
+      </c>
+      <c r="C110">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" s="3">
+        <v>23</v>
+      </c>
+      <c r="C111">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" s="3">
+        <v>23</v>
+      </c>
+      <c r="C112">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" s="3">
+        <v>23</v>
+      </c>
+      <c r="C113">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" s="3">
+        <v>23</v>
+      </c>
+      <c r="C114">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" s="3">
+        <v>23</v>
+      </c>
+      <c r="C115">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" s="3">
+        <v>23</v>
+      </c>
+      <c r="C116">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" s="3">
+        <v>23</v>
+      </c>
+      <c r="C117">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" s="3">
+        <v>23</v>
+      </c>
+      <c r="C118">
+        <v>20201</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" s="3">
+        <v>27</v>
+      </c>
+      <c r="B119">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" s="3">
+        <v>27</v>
+      </c>
+      <c r="B120">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" s="3">
+        <v>28</v>
+      </c>
+      <c r="C121">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" s="3">
+        <v>28</v>
+      </c>
+      <c r="C122">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" s="3">
+        <v>32</v>
+      </c>
+      <c r="B123">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" s="3">
+        <v>33</v>
+      </c>
+      <c r="B124">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" s="3">
+        <v>33</v>
+      </c>
+      <c r="B125">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" s="3">
+        <v>34</v>
+      </c>
+      <c r="C126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" s="3">
+        <v>34</v>
+      </c>
+      <c r="C127">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" s="3">
+        <v>34</v>
+      </c>
+      <c r="C128">
+        <v>20203</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" s="3">
+        <v>35</v>
+      </c>
+      <c r="B129">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" s="3">
+        <v>35</v>
+      </c>
+      <c r="B130">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" s="3">
+        <v>35</v>
+      </c>
+      <c r="B131">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" s="3">
+        <v>35</v>
+      </c>
+      <c r="B132">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" s="3">
+        <v>35</v>
+      </c>
+      <c r="B133">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" s="3">
+        <v>35</v>
+      </c>
+      <c r="B134">
+        <v>20104</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" s="3">
+        <v>35</v>
+      </c>
+      <c r="B135">
+        <v>20201</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" s="3">
+        <v>36</v>
+      </c>
+      <c r="B136">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" s="3">
+        <v>36</v>
+      </c>
+      <c r="B137">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" s="3">
+        <v>36</v>
+      </c>
+      <c r="B138">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" s="3">
+        <v>36</v>
+      </c>
+      <c r="B139">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" s="3">
+        <v>36</v>
+      </c>
+      <c r="B140">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" s="3">
+        <v>36</v>
+      </c>
+      <c r="B141">
+        <v>20104</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" s="3">
+        <v>36</v>
+      </c>
+      <c r="B142">
+        <v>20201</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" s="3">
+        <v>36</v>
+      </c>
+      <c r="B143">
+        <v>20203</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" s="3">
+        <v>36</v>
+      </c>
+      <c r="B144">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" s="3">
+        <v>37</v>
+      </c>
+      <c r="B145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" s="3">
+        <v>37</v>
+      </c>
+      <c r="B146">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" s="3">
+        <v>37</v>
+      </c>
+      <c r="B147">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" s="3">
+        <v>37</v>
+      </c>
+      <c r="B148">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" s="3">
+        <v>37</v>
+      </c>
+      <c r="B149">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" s="3">
+        <v>37</v>
+      </c>
+      <c r="B150">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" s="3">
+        <v>37</v>
+      </c>
+      <c r="B151">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" s="3">
+        <v>37</v>
+      </c>
+      <c r="B152">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" s="3">
+        <v>38</v>
+      </c>
+      <c r="B153">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" s="3">
+        <v>38</v>
+      </c>
+      <c r="B154">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" s="3">
+        <v>38</v>
+      </c>
+      <c r="B155">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" s="3">
+        <v>38</v>
+      </c>
+      <c r="B156">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" s="3">
+        <v>38</v>
+      </c>
+      <c r="B157">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" s="3">
+        <v>38</v>
+      </c>
+      <c r="B158">
+        <v>20201</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" s="3">
+        <v>38</v>
+      </c>
+      <c r="B159">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" s="3">
+        <v>39</v>
+      </c>
+      <c r="B160">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" s="3">
+        <v>39</v>
+      </c>
+      <c r="B161">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" s="3">
+        <v>39</v>
+      </c>
+      <c r="B162">
+        <v>20104</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" s="3">
+        <v>39</v>
+      </c>
+      <c r="B163">
+        <v>20201</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" s="3">
+        <v>39</v>
+      </c>
+      <c r="B164">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" s="3">
+        <v>39</v>
+      </c>
+      <c r="B165">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166" s="3">
+        <v>40</v>
+      </c>
+      <c r="B166">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167" s="3">
+        <v>40</v>
+      </c>
+      <c r="B167">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168" s="3">
+        <v>40</v>
+      </c>
+      <c r="B168">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169" s="3">
+        <v>40</v>
+      </c>
+      <c r="B169">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170" s="3">
+        <v>40</v>
+      </c>
+      <c r="B170">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171" s="3">
+        <v>40</v>
+      </c>
+      <c r="B171">
+        <v>20104</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172" s="3">
+        <v>40</v>
+      </c>
+      <c r="B172">
+        <v>20201</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173" s="3">
+        <v>41</v>
+      </c>
+      <c r="B173">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174" s="3">
+        <v>41</v>
+      </c>
+      <c r="B174">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175" s="3">
+        <v>42</v>
+      </c>
+      <c r="B175">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176" s="3">
+        <v>42</v>
+      </c>
+      <c r="B176">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177" s="3">
+        <v>43</v>
+      </c>
+      <c r="B177">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178" s="3">
+        <v>44</v>
+      </c>
+      <c r="C178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179" s="3">
+        <v>44</v>
+      </c>
+      <c r="C179">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180" s="3">
+        <v>44</v>
+      </c>
+      <c r="C180">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181" s="3">
+        <v>44</v>
+      </c>
+      <c r="C181">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A182" s="3">
+        <v>44</v>
+      </c>
+      <c r="C182">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183" s="3">
+        <v>44</v>
+      </c>
+      <c r="C183">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184" s="3">
+        <v>44</v>
+      </c>
+      <c r="C184">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A185" s="3">
+        <v>44</v>
+      </c>
+      <c r="C185">
+        <v>20103</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A186" s="3">
+        <v>44</v>
+      </c>
+      <c r="C186">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A187" s="3">
+        <v>45</v>
+      </c>
+      <c r="C187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A188" s="3">
+        <v>45</v>
+      </c>
+      <c r="C188">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189" s="3">
+        <v>45</v>
+      </c>
+      <c r="C189">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A190" s="3">
+        <v>45</v>
+      </c>
+      <c r="C190">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A191" s="3">
+        <v>45</v>
+      </c>
+      <c r="C191">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A192" s="3">
+        <v>45</v>
+      </c>
+      <c r="C192">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A193" s="3">
+        <v>45</v>
+      </c>
+      <c r="C193">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A194" s="3">
+        <v>45</v>
+      </c>
+      <c r="C194">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A195" s="3">
+        <v>45</v>
+      </c>
+      <c r="C195">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A196" s="3">
+        <v>48</v>
+      </c>
+      <c r="B196">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A197" s="3">
+        <v>48</v>
+      </c>
+      <c r="B197">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A198" s="3">
+        <v>49</v>
+      </c>
+      <c r="B198">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A199" s="3">
+        <v>49</v>
+      </c>
+      <c r="B199">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A200" s="3">
+        <v>54</v>
+      </c>
+      <c r="B200">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A201" s="3">
+        <v>57</v>
+      </c>
+      <c r="C201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A202" s="3">
+        <v>57</v>
+      </c>
+      <c r="C202">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A203" s="3">
+        <v>57</v>
+      </c>
+      <c r="C203">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A204" s="3">
+        <v>57</v>
+      </c>
+      <c r="C204">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A205" s="3">
+        <v>57</v>
+      </c>
+      <c r="C205">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A206" s="3">
+        <v>57</v>
+      </c>
+      <c r="C206">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A207" s="3">
+        <v>57</v>
+      </c>
+      <c r="C207">
+        <v>901</v>
       </c>
     </row>
   </sheetData>

--- a/docs/data/blacklist/blacklist.xlsx
+++ b/docs/data/blacklist/blacklist.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27920" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Answers" sheetId="10" r:id="rId1"/>
@@ -382,12 +382,12 @@
   <dimension ref="A1:W207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="8.83203125" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
     <col min="4" max="4" width="34.5" customWidth="1"/>
     <col min="6" max="6" width="10.83203125" customWidth="1"/>
     <col min="7" max="23" width="7" customWidth="1"/>
